--- a/documents/requirement_analysis/仕様チェックリスト.xlsx
+++ b/documents/requirement_analysis/仕様チェックリスト.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/273debb854664e28/デスクトップ/Projects/10031s0001/documents/requirement_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="11_003CE50134A86726F382996C3BDCE00186AAF4F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3983573-2194-4923-A1A8-B774CF1C22CA}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="11_003CE50134A86726F382996C3BDCE00186AAF4F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3439E06-469E-4BF7-A130-D0F0970CA001}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="2" r:id="rId1"/>
     <sheet name="要求定義書_チェックリスト" sheetId="1" r:id="rId2"/>
+    <sheet name="アセンブラ説明書テキスト_チェックリスト" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アセンブラ説明書テキスト_チェックリスト!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">要求定義書_チェックリスト!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -107,21 +109,6 @@
     <t>新規作成</t>
     <rPh sb="0" eb="4">
       <t>シンキサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NoXX-XXの追記。</t>
-    <rPh sb="8" eb="10">
-      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,6 +520,51 @@
     <rPh sb="32" eb="34">
       <t>モクテキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシステムは、仮想コンピュータCOMETを、Linux上に実現することを目的とする。
+すなわち、CASLアセンブラ言語仕様のオブジェクトコードをCOMETシミュレータで実行し、またトレースを行うものである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機種およびOS</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X86_64 Linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)実行可能ファイルを読み込む。(フォーマットについては別紙３参照。)</t>
+  </si>
+  <si>
+    <t>(2)PRに実行開始アドレスを設定する。仮想メモリ上のオブジェクトコードを一命令ずつ実行する。
+一命令実行毎に実行後の状態をトレースリストとして出力する。(命令語の構成については別紙１参
+照。)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)実行中にエラーが発生したり、実行不可能の場合には、実行を中止する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)EXIT命令を検出したら実行を終了する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)正常終了か否かに応じて、トレース終了のメッセージを出力する。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -571,7 +603,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,20 +652,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,15 +674,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,6 +685,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,244 +1019,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="67.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>43675</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43677</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
+      <c r="A20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1235,680 +1166,1147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="111.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="111.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A0809F-D3DA-464F-90B7-88E194A00382}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="111.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="8">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="8"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>

--- a/documents/requirement_analysis/仕様チェックリスト.xlsx
+++ b/documents/requirement_analysis/仕様チェックリスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="284" documentId="11_003CE50134A86726F382996C3BDCE00186AAF4F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3439E06-469E-4BF7-A130-D0F0970CA001}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2205" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="2" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.4"/>
